--- a/api/app_api/backlog/reset_password/username_field__positive.xlsx
+++ b/api/app_api/backlog/reset_password/username_field__positive.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\reset_password\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\get_logged_in_devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D5276-3E7B-43F1-AD72-EC0006820620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26D4416-FDE1-45CD-87EE-B027D88041DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="reset_password" sheetId="1" r:id="rId1"/>
+    <sheet name="logged_in_username" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -228,7 +228,7 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST)
+3. define request(method -POST )
 4. fill the other required field with valid credentials and goto username field
 5. send the request with valid alphanumeric characters within allowed length limit 
 6. review the response status code.</t>
@@ -236,7 +236,7 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST)
+3. define request(method -POST )
 4. fill the other required field with valid credentials and goto username field
 5. send the request with valid special characters within allowed length limit
 6. review the response status code.</t>
@@ -244,7 +244,7 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST)
+3. define request(method -POST )
 4. fill the other required field with valid credentials and goto username field
 5. send the request with maximum allowed length
 6. review the response status code.</t>
@@ -306,6 +306,9 @@
 6. review the response status code.</t>
   </si>
   <si>
+    <t>Test Scenario: Logged In Devices Username Field (positive)</t>
+  </si>
+  <si>
     <t>1. open the postman
 2. create or open the saved request
 3. define request(method -POST )
@@ -316,7 +319,7 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST)
+3. define request(method -POST )
 4. fill the other required field with valid credentials and goto username field
 5. send the request with uppercase letters only
 6. review the response status code.</t>
@@ -356,7 +359,7 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST)
+3. define request(method -POST )
 4. fill the other required field with valid credentials and goto username field
 5. send the request with the same character repeated multiple times
 6. review the response status code.</t>
@@ -364,7 +367,7 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST)
+3. define request(method -POST )
 4. fill the other required field with valid credentials and goto username field
 5. send the request with  valid email format but using unicode characters
 6. review the response status code.</t>
@@ -380,7 +383,7 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST)
+3. define request(method -POST )
 4. fill the other required field with valid credentials and goto username field
 5. send the request with a mix of letters, numbers, and special characters
 6. review the response status code.</t>
@@ -396,7 +399,7 @@
   <si>
     <t>1. open the postman
 2. create or open the saved request
-3. define request(method -POST)
+3. define request(method -POST )
 4. fill the other required field with valid credentials and goto username field
 5. send the request with a mix of alphanumeric characters and spaces
 6. review the response status code.</t>
@@ -432,9 +435,6 @@
 4. fill the other required field with valid credentials and goto username field
 5. verify username field with valid email format containing a hyphen at the beginning of the local part
 6. review the response status code.</t>
-  </si>
-  <si>
-    <t>Test Scenario: Reset Password Username Field Positive</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1880,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G2"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1897,7 +1897,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2408,7 +2408,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>33</v>
@@ -2448,7 +2448,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>33</v>
@@ -2488,7 +2488,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>33</v>
@@ -2528,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>33</v>
@@ -2568,7 +2568,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>33</v>
@@ -2608,7 +2608,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>33</v>
@@ -2648,7 +2648,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>33</v>
@@ -2688,7 +2688,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>33</v>
@@ -2728,7 +2728,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>33</v>
@@ -2768,7 +2768,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>33</v>
@@ -2808,7 +2808,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>33</v>
@@ -2848,7 +2848,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>33</v>
@@ -2888,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>33</v>
@@ -2928,7 +2928,7 @@
         <v>54</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>33</v>
@@ -2968,7 +2968,7 @@
         <v>65</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>33</v>
@@ -3008,7 +3008,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>33</v>
